--- a/.физическая модель БД/физическая модель БД.xlsx
+++ b/.физическая модель БД/физическая модель БД.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1B1BE-C733-4D72-A6B2-16A2E4CBADF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
   <si>
     <t>Пользователи</t>
   </si>
@@ -73,9 +74,6 @@
     <t>id_user</t>
   </si>
   <si>
-    <t>id_product</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -88,9 +86,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -167,12 +162,18 @@
   </si>
   <si>
     <t>type_product</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>id_order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,6 +383,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -417,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -592,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +660,7 @@
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="10" t="s">
@@ -649,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -671,13 +706,13 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -705,13 +740,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -727,7 +762,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -747,7 +782,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -755,10 +790,10 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>6</v>
@@ -775,7 +810,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -783,7 +818,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -799,7 +834,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -839,7 +874,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -847,7 +882,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
@@ -857,7 +892,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -865,7 +900,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -877,15 +912,15 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -907,10 +942,10 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -937,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -961,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -997,11 +1032,11 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -1019,16 +1054,16 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1043,13 +1078,13 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>15</v>
@@ -1061,19 +1096,19 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -1133,7 +1168,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="7"/>
@@ -1147,7 +1182,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -1163,7 +1198,7 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
@@ -1179,10 +1214,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1195,10 +1230,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1211,7 +1246,7 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="7"/>
@@ -1219,7 +1254,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -1247,7 +1282,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>16</v>
@@ -1257,7 +1292,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>15</v>
@@ -1277,10 +1312,10 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,7 +1332,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
@@ -1317,13 +1352,13 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1332,14 +1367,14 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1348,12 +1383,6 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
